--- a/model_exports/labels/2.0_False_False_7_3.xlsx
+++ b/model_exports/labels/2.0_False_False_7_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C733"/>
+  <dimension ref="A1:C731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-536414184204800001</t>
+          <t>t-933792655041064962</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,20 +479,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-536957598252417024</t>
+          <t>t-1033470726521544704</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-933792655041064962</t>
+          <t>t-509432328561885184</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,37 +505,37 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-1025792018793021440</t>
+          <t>t-498526651912032258</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-497139824780787712</t>
+          <t>t-498546619508609024</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-497141925451792384</t>
+          <t>t-498600191088271361</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -544,59 +544,59 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-497161697371893760</t>
+          <t>t-498638581536399361</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-497242468627124224</t>
+          <t>t-498641690949713920</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-497474058641215489</t>
+          <t>t-498643083517767681</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-497485019451883520</t>
+          <t>t-498648204872015872</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-688456240490508289</t>
+          <t>t-573511311906115584</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -609,7 +609,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-1027818664391847936</t>
+          <t>t-573530576818434048</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -622,20 +622,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-1027909740905553920</t>
+          <t>t-608798073561612289</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-1032695855143370753</t>
+          <t>t-648290405872627712</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -648,20 +648,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-1033108055162941440</t>
+          <t>t-658615758751211520</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-1047160746386382848</t>
+          <t>t-658616745809330176</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -674,7 +674,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-583290347863851008</t>
+          <t>t-658617481574092800</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -687,7 +687,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-693851248634810368</t>
+          <t>t-681917420068564992</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -700,20 +700,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-712108446167011328</t>
+          <t>t-682618491283857408</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-719525216439910400</t>
+          <t>t-683960479224586240</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -726,11 +726,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-719704738913083392</t>
+          <t>t-684033292694327296</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -739,11 +739,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-738281921046675456</t>
+          <t>t-684082364117585920</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -752,20 +752,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-738404067647455232</t>
+          <t>t-684154242035089408</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-738429326224302080</t>
+          <t>t-686267623462408192</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -778,33 +778,33 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-738429350467543044</t>
+          <t>t-693851248634810368</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-756508260925075456</t>
+          <t>t-712108446167011328</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-767329938500308992</t>
+          <t>t-719525216439910400</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -817,20 +817,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-871116400701706241</t>
+          <t>t-719704738913083392</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-871834189787791364</t>
+          <t>t-738281921046675456</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -843,7 +843,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-872075702203559936</t>
+          <t>t-738404067647455232</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -856,7 +856,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-872158265681096708</t>
+          <t>t-738429326224302080</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -869,20 +869,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-894637864561987584</t>
+          <t>t-738429350467543044</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-894643508547526657</t>
+          <t>t-830539164638703616</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -895,59 +895,59 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-894960674811596800</t>
+          <t>t-876890893143298050</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-894974152540553216</t>
+          <t>t-876899745704415232</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-894976401597763584</t>
+          <t>t-876909191105048577</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-895262760954736640</t>
+          <t>t-876910840670302209</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-965645492616036357</t>
+          <t>t-876983597760172032</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -960,7 +960,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-965648872474398721</t>
+          <t>t-877064271393370112</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -973,7 +973,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-965652051077357569</t>
+          <t>t-877647799629733893</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -986,7 +986,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-966072585061625856</t>
+          <t>t-877649383340298240</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -999,33 +999,33 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-966155045300588545</t>
+          <t>t-878107705168334848</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-966356829596016640</t>
+          <t>t-878263651773407233</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-966362179913093121</t>
+          <t>t-878265674975461376</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1038,20 +1038,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-966449125788090370</t>
+          <t>t-878542338414362624</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-966450069024239616</t>
+          <t>t-880275227367821312</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1064,24 +1064,24 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-966465261950906369</t>
+          <t>t-893450286144131072</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-966698278606856197</t>
+          <t>t-982113517636435969</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1090,7 +1090,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-966704060270370817</t>
+          <t>t-982126921570893825</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,7 +1103,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-966706278016999424</t>
+          <t>t-1024388985282383872</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1116,7 +1116,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-966769885220163586</t>
+          <t>t-1028763648074940416</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1129,20 +1129,20 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-970872683402539011</t>
+          <t>t-1028815266174517249</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-977248381662892039</t>
+          <t>t-1028873828355780608</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1155,7 +1155,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-977294782048428032</t>
+          <t>t-1029034881769197569</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1168,20 +1168,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-1018804138195513344</t>
+          <t>t-1029100538422587393</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-1018807229267496962</t>
+          <t>t-548492147645640704</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1194,11 +1194,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-1018819644377923585</t>
+          <t>t-975411428663345152</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -1207,7 +1207,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-1018962868379750402</t>
+          <t>t-502103720327671808</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1220,20 +1220,20 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-1019003195874512897</t>
+          <t>t-615459121891012608</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-1019014466770333697</t>
+          <t>t-641417749898522624</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1246,20 +1246,20 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-1019698120098222080</t>
+          <t>t-765818303898058752</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-1024388985282383872</t>
+          <t>t-928952366598037506</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1272,7 +1272,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-1045002319061012482</t>
+          <t>t-976076558824767489</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1285,33 +1285,33 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-1045014122092482560</t>
+          <t>t-1017282491193782272</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-1045027654121000962</t>
+          <t>t-1049900608294137856</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-1045031106968465408</t>
+          <t>t-1061557072670670850</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1324,7 +1324,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-1045065376575475712</t>
+          <t>t-1061559942140780544</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1337,46 +1337,46 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-822160325608734720</t>
+          <t>t-538858836992331776</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-822824168110493696</t>
+          <t>t-788842589554343938</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-823329247884251137</t>
+          <t>t-903265153931608064</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-875896081233567744</t>
+          <t>t-979396065278427139</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1389,11 +1389,11 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-975411428663345152</t>
+          <t>t-908760840886767616</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -1402,24 +1402,24 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-762401879758372864</t>
+          <t>t-618395942002102272</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-762402279601344512</t>
+          <t>t-626070342885249024</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -1428,24 +1428,24 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-762404827229892608</t>
+          <t>t-868226298719633408</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-827438952974004224</t>
+          <t>t-927521858815131648</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -1454,24 +1454,24 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-533166195508117505</t>
+          <t>t-1005217349610426371</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-619895281761423360</t>
+          <t>t-568441199297761281</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -1480,7 +1480,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-730338940872445952</t>
+          <t>t-568878359158984704</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1493,59 +1493,59 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-731342823132274688</t>
+          <t>t-743488475874353153</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-903960318652669952</t>
+          <t>t-743501818358042625</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-903973451970392064</t>
+          <t>t-818386811332558848</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-924921911510949890</t>
+          <t>t-818898970961473536</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-924939317381758976</t>
+          <t>t-887680971797131264</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1558,33 +1558,33 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-925210606361300992</t>
+          <t>t-887683274591662080</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-925257914817892352</t>
+          <t>t-887690953800253442</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-976076558824767489</t>
+          <t>t-887715764404449281</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1597,37 +1597,37 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-770776256669372416</t>
+          <t>t-887751540173414404</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-981152225723604993</t>
+          <t>t-887923666507489280</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-611838090278121474</t>
+          <t>t-887928668626055169</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -1636,11 +1636,11 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-612267884463673344</t>
+          <t>t-887976731767918592</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -1649,11 +1649,11 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-612280320520425472</t>
+          <t>t-888083621801844737</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -1662,20 +1662,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-676063553162379265</t>
+          <t>t-919827029243187200</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-747995724978192384</t>
+          <t>t-919919408797151233</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1688,7 +1688,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-824338590389960704</t>
+          <t>t-919933275422027776</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1701,7 +1701,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-903082857492566018</t>
+          <t>t-919961378433224704</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1714,7 +1714,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-511616761545121792</t>
+          <t>t-920296060211400704</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1727,7 +1727,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-641288611472654336</t>
+          <t>t-1014948759934066688</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1740,11 +1740,11 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-697497279213625344</t>
+          <t>t-547131830642569216</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -1753,7 +1753,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-697558252012355585</t>
+          <t>t-782023965489238017</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1766,7 +1766,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-770209564532674560</t>
+          <t>t-872693400436219904</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1779,33 +1779,33 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-1031705611933831168</t>
+          <t>t-1044757925414273025</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-681802042885697536</t>
+          <t>t-1044770473932816384</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-682128192019234816</t>
+          <t>t-568623295811194880</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1818,33 +1818,33 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-682147581405859841</t>
+          <t>t-625832003070509056</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-682223092198936576</t>
+          <t>t-626848405877301248</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-682287065824931840</t>
+          <t>t-873219337427062785</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1857,7 +1857,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-682459381347254272</t>
+          <t>t-912821640328773633</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1870,7 +1870,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-682632199527641089</t>
+          <t>t-611182304984109057</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1883,33 +1883,33 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-682755737790099456</t>
+          <t>t-736136204106616832</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-682908634020470785</t>
+          <t>t-1014543719205400576</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-682915879026339840</t>
+          <t>t-1014578901966876672</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1922,24 +1922,24 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-683017640638582784</t>
+          <t>t-1040717985516859392</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-683036658942513152</t>
+          <t>t-1060963338337902593</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -1948,7 +1948,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-683077568287866880</t>
+          <t>t-1031211148908081152</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1961,7 +1961,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-683235960692314112</t>
+          <t>t-745905684248694789</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1974,24 +1974,24 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-683258563628777472</t>
+          <t>t-745992462448140288</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-683386799184543745</t>
+          <t>t-746083614291562497</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -2000,37 +2000,37 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-683399457254326272</t>
+          <t>t-764015991344869376</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-683602691965206528</t>
+          <t>t-826760200636002305</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-683628764622905344</t>
+          <t>t-948592886060380161</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -2039,7 +2039,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-683644184683753472</t>
+          <t>t-973190028435353600</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2052,37 +2052,37 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-683649428587155456</t>
+          <t>t-987005505154535425</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-683773064040050688</t>
+          <t>t-859838431719030785</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-683968472968228864</t>
+          <t>t-865899138726100992</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
@@ -2091,33 +2091,33 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-683979793273065473</t>
+          <t>t-913204200187863040</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-684007082555748352</t>
+          <t>t-1043269235474984960</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-684323489562558465</t>
+          <t>t-649543845269667840</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2130,11 +2130,11 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-685408547975331840</t>
+          <t>t-858172777098072064</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
         <v>1</v>
@@ -2143,24 +2143,24 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-921072406919352320</t>
+          <t>t-858203574500818944</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-921102349552275456</t>
+          <t>t-858267644507631616</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -2169,50 +2169,50 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-921122924505026560</t>
+          <t>t-858374877706932224</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-921266455856939008</t>
+          <t>t-858419995453292545</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-921341244332113926</t>
+          <t>t-707739170878439424</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-921699631360176128</t>
+          <t>t-730685047137800192</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
@@ -2221,7 +2221,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-687545498014760960</t>
+          <t>t-730687533638619136</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2234,11 +2234,11 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-871833381906067459</t>
+          <t>t-769366123678621696</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
         <v>1</v>
@@ -2247,7 +2247,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-1042485319055155201</t>
+          <t>t-875514382276538369</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -2260,11 +2260,11 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-1047112720837951488</t>
+          <t>t-758205502480388096</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -2273,33 +2273,33 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-1047367778901090304</t>
+          <t>t-758575120290091008</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-928583361618169856</t>
+          <t>t-782856010625003521</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-872693400436219904</t>
+          <t>t-864813217943441412</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -2312,85 +2312,85 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-692803310668087296</t>
+          <t>t-892821066799820805</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-778616752993214464</t>
+          <t>t-985241133159796736</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-863530798334476291</t>
+          <t>t-536338799517634560</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-876969646846603270</t>
+          <t>t-652481072199036928</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-985892254756884480</t>
+          <t>t-682987194840150016</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-987722164903251968</t>
+          <t>t-735525963610660865</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-575206069833629696</t>
+          <t>t-736203598091190272</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -2403,11 +2403,11 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-902218968345272321</t>
+          <t>t-745382805253677057</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
         <v>1</v>
@@ -2416,20 +2416,20 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-1014543719205400576</t>
+          <t>t-746718356405882880</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-1014578901966876672</t>
+          <t>t-757613409047343105</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -2442,7 +2442,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-578289267857891328</t>
+          <t>t-794700824404430848</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -2455,24 +2455,24 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-1040717985516859392</t>
+          <t>t-851625591652720640</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-594613009575579649</t>
+          <t>t-852529810760908801</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -2481,20 +2481,20 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-698546841881853953</t>
+          <t>t-852624282018615296</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-782264769742934016</t>
+          <t>t-870028367990599681</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2507,20 +2507,20 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-886294080040423425</t>
+          <t>t-898515685369946113</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-904717770524372993</t>
+          <t>t-905607663798636547</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2533,33 +2533,33 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-972059634101047296</t>
+          <t>t-906292765633515520</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-756982430985166848</t>
+          <t>t-906696780133388288</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-756983738035077120</t>
+          <t>t-911712205657317376</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2572,7 +2572,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-757172169029804034</t>
+          <t>t-1035669454246563841</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2585,111 +2585,111 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-700818903744778240</t>
+          <t>t-1039643454140231684</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-809566350368796673</t>
+          <t>t-1039968877537456128</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-913204200187863040</t>
+          <t>t-626642400555892737</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-1043269235474984960</t>
+          <t>t-626741309693394948</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-1044637096198041600</t>
+          <t>t-626870204199534598</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-1050667252591120384</t>
+          <t>t-628272138890252288</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-536338799517634560</t>
+          <t>t-646027426347155456</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-601913063172771840</t>
+          <t>t-727306437798576130</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-602589391198900226</t>
+          <t>t-750893641632063488</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2702,11 +2702,11 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-721832870604640260</t>
+          <t>t-891394338445553666</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
@@ -2715,33 +2715,33 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-721856912548044800</t>
+          <t>t-891401235391066112</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-722873292755828736</t>
+          <t>t-891671460804259840</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-735525963610660865</t>
+          <t>t-891695041609162754</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2754,20 +2754,20 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-736203598091190272</t>
+          <t>t-892069950281711617</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-746718356405882880</t>
+          <t>t-892901315642146816</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2780,20 +2780,20 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-764530848079155200</t>
+          <t>t-967489391517192192</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-764927216257949696</t>
+          <t>t-1004794708802048002</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2806,7 +2806,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-821459572263100416</t>
+          <t>t-1032014514642870273</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2819,50 +2819,50 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-905607663798636547</t>
+          <t>t-1032716444352565254</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-906292765633515520</t>
+          <t>t-1032730617966985222</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-906696780133388288</t>
+          <t>t-1032743287877251074</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-913139045009633280</t>
+          <t>t-1032755601561059328</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -2871,20 +2871,20 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-913178067195088902</t>
+          <t>t-1032777059473358848</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-913438297258708992</t>
+          <t>t-1032803632398229504</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2897,24 +2897,24 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-925358435398488064</t>
+          <t>t-1032806227296890880</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-952979792495816704</t>
+          <t>t-1032811146875727872</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" t="n">
         <v>1</v>
@@ -2923,20 +2923,20 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-956329812573945857</t>
+          <t>t-1032864439245000704</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-992252736560222210</t>
+          <t>t-1032982302542966789</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2949,46 +2949,46 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-1039643454140231684</t>
+          <t>t-1033200303871545344</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-1039968877537456128</t>
+          <t>t-1033518891744411648</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-1052665207342944261</t>
+          <t>t-1054153981998575616</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-1053196089317306368</t>
+          <t>t-533830044200599552</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -3001,7 +3001,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-1053286918086103042</t>
+          <t>t-534294668842766337</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3014,11 +3014,11 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-1054369632671404032</t>
+          <t>t-796087988140834817</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="n">
         <v>1</v>
@@ -3027,7 +3027,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-578194227852505088</t>
+          <t>t-903370281829498882</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -3040,24 +3040,24 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-643122505524322304</t>
+          <t>t-580289963599765504</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-760920272639852545</t>
+          <t>t-630004911024046080</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
@@ -3066,7 +3066,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-760967260039106560</t>
+          <t>t-630051857654751232</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -3079,11 +3079,11 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-760972532421984261</t>
+          <t>t-630833400857919488</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
@@ -3092,11 +3092,11 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-760978989359833088</t>
+          <t>t-647384012202356736</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C205" t="n">
         <v>1</v>
@@ -3105,7 +3105,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-761017815637696513</t>
+          <t>t-648159002224914436</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -3118,7 +3118,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-761048712214818816</t>
+          <t>t-648232794137718784</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -3131,11 +3131,11 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-761049587066867712</t>
+          <t>t-648426685910618112</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
@@ -3144,11 +3144,11 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-761050328493985794</t>
+          <t>t-660890514741399552</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C209" t="n">
         <v>1</v>
@@ -3157,7 +3157,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-761057847262142465</t>
+          <t>t-661115206525915136</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -3170,7 +3170,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-1016850546236542983</t>
+          <t>t-661147212135727104</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -3183,20 +3183,20 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-1029525697382047746</t>
+          <t>t-661201099085377537</t>
         </is>
       </c>
       <c r="B212" t="n">
         <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-1029541696839798791</t>
+          <t>t-681483416165048320</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -3209,11 +3209,11 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-1029769212384948225</t>
+          <t>t-707575261483687937</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -3222,24 +3222,24 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-1032014514642870273</t>
+          <t>t-732832771106865153</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-1032716444352565254</t>
+          <t>t-755726869270523904</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C216" t="n">
         <v>1</v>
@@ -3248,111 +3248,111 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-1032730617966985222</t>
+          <t>t-799654742746165248</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-1032743287877251074</t>
+          <t>t-832931106873819136</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-1032755601561059328</t>
+          <t>t-903533073358352385</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-1032777059473358848</t>
+          <t>t-903589529143189504</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-1032803632398229504</t>
+          <t>t-919174352289005568</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-1032806227296890880</t>
+          <t>t-919528265718665216</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-1032811146875727872</t>
+          <t>t-968863674306834432</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-1032864439245000704</t>
+          <t>t-972048308909826048</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-1032982302542966789</t>
+          <t>t-986933673697120257</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -3365,7 +3365,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-1033200303871545344</t>
+          <t>t-1000764381108555776</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -3378,7 +3378,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-1033518891744411648</t>
+          <t>t-1003317489990848512</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -3391,7 +3391,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-533830044200599552</t>
+          <t>t-1003350897521459202</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3404,7 +3404,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-534294668842766337</t>
+          <t>t-1003359993201025024</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3417,7 +3417,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-619624637685755904</t>
+          <t>t-1003379549600731139</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3430,24 +3430,24 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-580289963599765504</t>
+          <t>t-1014627656082579457</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-581999689727389696</t>
+          <t>t-545590349045833728</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232" t="n">
         <v>1</v>
@@ -3456,11 +3456,11 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-605776092780044291</t>
+          <t>t-646786233809539072</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233" t="n">
         <v>1</v>
@@ -3469,63 +3469,63 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-721969035412422656</t>
+          <t>t-772514094360305664</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-722671206881746944</t>
+          <t>t-817123537488084993</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-739781293882347520</t>
+          <t>t-983975898042064896</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-767994872578056192</t>
+          <t>t-984343410269151233</t>
         </is>
       </c>
       <c r="B237" t="n">
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-775760180936048640</t>
+          <t>t-560425264807944193</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238" t="n">
         <v>1</v>
@@ -3534,20 +3534,20 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-775760740204552192</t>
+          <t>t-755764875155083264</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-775766510182731776</t>
+          <t>t-570999709160116224</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -3560,33 +3560,33 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-775772257327128576</t>
+          <t>t-571255966727053312</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-775805122920189952</t>
+          <t>t-573120640175112192</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-776165588917944320</t>
+          <t>t-632590097284734976</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -3599,63 +3599,63 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-832931106873819136</t>
+          <t>t-668121380727226368</t>
         </is>
       </c>
       <c r="B244" t="n">
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-919174352289005568</t>
+          <t>t-772934103733788672</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-919528265718665216</t>
+          <t>t-772960588171403264</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-953220290657492992</t>
+          <t>t-773538620472979456</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-957285309796044800</t>
+          <t>t-773979956305100800</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248" t="n">
         <v>1</v>
@@ -3664,11 +3664,11 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-957305309328039936</t>
+          <t>t-778893752471543808</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C249" t="n">
         <v>1</v>
@@ -3677,7 +3677,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-957621820626276353</t>
+          <t>t-778933660334559232</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -3690,11 +3690,11 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-958690487875055616</t>
+          <t>t-864137650625753088</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C251" t="n">
         <v>1</v>
@@ -3703,7 +3703,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-968863674306834432</t>
+          <t>t-864465975068037122</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -3716,59 +3716,59 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-984477965856772096</t>
+          <t>t-864657619700658176</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-984491425478971393</t>
+          <t>t-884449137407791104</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-984517270725644288</t>
+          <t>t-885109132638003200</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-985567499843489798</t>
+          <t>t-885140571232374784</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-685265326112559104</t>
+          <t>t-885166687825350662</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3781,24 +3781,24 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-741861803148214272</t>
+          <t>t-885188751936417793</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-772514094360305664</t>
+          <t>t-930445521671589888</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
         <v>1</v>
@@ -3807,46 +3807,46 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-570559495811813376</t>
+          <t>t-981529575271337984</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-570650767369109504</t>
+          <t>t-992126872036233224</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-570656230466838528</t>
+          <t>t-993085432052273153</t>
         </is>
       </c>
       <c r="B262" t="n">
         <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-570659758706962432</t>
+          <t>t-578003881596215296</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3859,7 +3859,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-570724512095969280</t>
+          <t>t-637980934705422337</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3872,7 +3872,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-570966152807100416</t>
+          <t>t-787849177581649920</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3885,37 +3885,37 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-570990183648243712</t>
+          <t>t-798356661148655616</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-571060362520502272</t>
+          <t>t-798650812511588352</t>
         </is>
       </c>
       <c r="B267" t="n">
         <v>1</v>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-571231922355097600</t>
+          <t>t-892449776129777665</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268" t="n">
         <v>1</v>
@@ -3924,7 +3924,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-571320451407974400</t>
+          <t>t-892462041277091840</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3937,11 +3937,11 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-571330597400018944</t>
+          <t>t-892471980875808773</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C270" t="n">
         <v>1</v>
@@ -3950,7 +3950,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-571345826099941376</t>
+          <t>t-892472490483646466</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3963,98 +3963,98 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-571920017329156096</t>
+          <t>t-892606487482089472</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-572029056453115906</t>
+          <t>t-892633367342088192</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-573087826360836097</t>
+          <t>t-892700840817045504</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-727758683510329344</t>
+          <t>t-892731725897281538</t>
         </is>
       </c>
       <c r="B275" t="n">
         <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-727889856274247680</t>
+          <t>t-924289234399322112</t>
         </is>
       </c>
       <c r="B276" t="n">
         <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-581325099023892480</t>
+          <t>t-1042410099652919297</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-581326319130116096</t>
+          <t>t-573279947445420034</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-581406863343779840</t>
+          <t>t-729341140499976193</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -4067,59 +4067,59 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-581587820248109056</t>
+          <t>t-729421969410564096</t>
         </is>
       </c>
       <c r="B280" t="n">
         <v>1</v>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-791567733695606784</t>
+          <t>t-729436964269658112</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-632590097284734976</t>
+          <t>t-729446762138591232</t>
         </is>
       </c>
       <c r="B282" t="n">
         <v>1</v>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-788874378666737664</t>
+          <t>t-729454167735959552</t>
         </is>
       </c>
       <c r="B283" t="n">
         <v>1</v>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-800018818399694848</t>
+          <t>t-729749802209054720</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -4132,33 +4132,33 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-800716652195282946</t>
+          <t>t-573281947792883712</t>
         </is>
       </c>
       <c r="B285" t="n">
         <v>0</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-880769643060842496</t>
+          <t>t-599363330575364096</t>
         </is>
       </c>
       <c r="B286" t="n">
         <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-894726430050754561</t>
+          <t>t-763085869045653505</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -4171,24 +4171,24 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-957965473316069376</t>
+          <t>t-763088808799797248</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-998345989382705152</t>
+          <t>t-831479807821103104</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-567287806645395457</t>
+          <t>t-831825002534154241</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -4210,7 +4210,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-571264964683436033</t>
+          <t>t-960911174505238534</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -4223,7 +4223,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-817491496857255936</t>
+          <t>t-1033036271491461120</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -4236,7 +4236,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-576618970368876544</t>
+          <t>t-1057298961642471425</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -4249,24 +4249,24 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-572808490965733378</t>
+          <t>t-874804635327905792</t>
         </is>
       </c>
       <c r="B294" t="n">
         <v>1</v>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-831479807821103104</t>
+          <t>t-1002347419114311681</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -4275,37 +4275,37 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-831825002534154241</t>
+          <t>t-821077876112035840</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-575443997050691585</t>
+          <t>t-821090113476325376</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-874804635327905792</t>
+          <t>t-935929183758356480</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -4314,20 +4314,20 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-1050145290718564352</t>
+          <t>t-580101390820876288</t>
         </is>
       </c>
       <c r="B299" t="n">
         <v>1</v>
       </c>
       <c r="C299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-579030352271917056</t>
+          <t>t-580474226571915265</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -4340,11 +4340,11 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-579089809991331841</t>
+          <t>t-581395014502191104</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C301" t="n">
         <v>1</v>
@@ -4353,24 +4353,24 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-821077876112035840</t>
+          <t>t-837738761547091968</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-821090113476325376</t>
+          <t>t-724222646435508224</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -4379,46 +4379,46 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-580101390820876288</t>
+          <t>t-766980130283610112</t>
         </is>
       </c>
       <c r="B304" t="n">
         <v>1</v>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-580474226571915265</t>
+          <t>t-851578277311373312</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-581395014502191104</t>
+          <t>t-910191038052077569</t>
         </is>
       </c>
       <c r="B306" t="n">
         <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-599007393494605824</t>
+          <t>t-1038395251214495744</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -4431,7 +4431,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-599125027116568576</t>
+          <t>t-1038467054960095234</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -4444,7 +4444,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-601384798897115138</t>
+          <t>t-1038555106885681153</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -4457,20 +4457,20 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-640921153591050240</t>
+          <t>t-880261784304631810</t>
         </is>
       </c>
       <c r="B310" t="n">
         <v>0</v>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-724222646435508224</t>
+          <t>t-648598850530226176</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -4483,72 +4483,72 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-765721842803802112</t>
+          <t>t-765678719205724160</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-774740590848188416</t>
+          <t>t-895489338364055553</t>
         </is>
       </c>
       <c r="B313" t="n">
         <v>1</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-851578277311373312</t>
+          <t>t-983744396364480512</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-872233585960337408</t>
+          <t>t-919294420465229824</t>
         </is>
       </c>
       <c r="B315" t="n">
         <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-912188711261036544</t>
+          <t>t-667518003613818880</t>
         </is>
       </c>
       <c r="B316" t="n">
         <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-912397778260840448</t>
+          <t>t-922944953696899072</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -4561,11 +4561,11 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-912428211253972997</t>
+          <t>t-922950403255341056</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -4574,46 +4574,46 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-631280418583658496</t>
+          <t>t-922959565792083968</t>
         </is>
       </c>
       <c r="B319" t="n">
         <v>1</v>
       </c>
       <c r="C319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-639100384343101440</t>
+          <t>t-736405703838044160</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-634366408906768384</t>
+          <t>t-954775347962241025</t>
         </is>
       </c>
       <c r="B321" t="n">
         <v>0</v>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-735633517237919744</t>
+          <t>t-954792612103442432</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -4626,11 +4626,11 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-1039755728448352257</t>
+          <t>t-954866409300987904</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C323" t="n">
         <v>1</v>
@@ -4639,20 +4639,20 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-1039888860501688320</t>
+          <t>t-738154348752953345</t>
         </is>
       </c>
       <c r="B324" t="n">
         <v>1</v>
       </c>
       <c r="C324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-1055172080499515392</t>
+          <t>t-738363319199928321</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -4665,7 +4665,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-1055204302220943368</t>
+          <t>t-738396040357761024</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -4678,33 +4678,33 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-651424335614353409</t>
+          <t>t-738456086156443648</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-651596952564572160</t>
+          <t>t-738474348290277376</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-876856640372387842</t>
+          <t>t-744360846420107265</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -4717,7 +4717,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-660109346915770368</t>
+          <t>t-761251305100902400</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -4730,7 +4730,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-660117216885477376</t>
+          <t>t-1009997647032344576</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -4743,7 +4743,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-660467638917660672</t>
+          <t>t-1011820273774006272</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -4756,20 +4756,20 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-919294420465229824</t>
+          <t>t-1012308763422937089</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-1041361257410904064</t>
+          <t>t-768829814824247296</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -4782,7 +4782,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-1041679427464298496</t>
+          <t>t-768861970195881986</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -4795,33 +4795,33 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-715587588204015616</t>
+          <t>t-768886684955975680</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-794366500865982467</t>
+          <t>t-769194684576960513</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-803284826191171584</t>
+          <t>t-785262083638169600</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -4834,11 +4834,11 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-1001848606427697153</t>
+          <t>t-847243626082050048</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -4847,24 +4847,24 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-679420394223345665</t>
+          <t>t-847412512383356932</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-736405703838044160</t>
+          <t>t-847416452424519680</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -4873,46 +4873,46 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-939871571342249985</t>
+          <t>t-847625871712112640</t>
         </is>
       </c>
       <c r="B342" t="n">
         <v>1</v>
       </c>
       <c r="C342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-981289690258071552</t>
+          <t>t-847873968065433600</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-853267425386803200</t>
+          <t>t-848285144846921728</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-733752725972746240</t>
+          <t>t-848349687950266373</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,7 +4925,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-733764949433012224</t>
+          <t>t-848632201470259200</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -4938,7 +4938,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-738154348752953345</t>
+          <t>t-848638922687221760</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -4951,7 +4951,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-738363319199928321</t>
+          <t>t-848870222769606658</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -4964,7 +4964,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-738396040357761024</t>
+          <t>t-848971430775709697</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,7 +4977,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-738456086156443648</t>
+          <t>t-849083151532032000</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4990,20 +4990,20 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-738474348290277376</t>
+          <t>t-849228504088670208</t>
         </is>
       </c>
       <c r="B351" t="n">
         <v>1</v>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-829844333205413888</t>
+          <t>t-850470638624133120</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -5016,11 +5016,11 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-756636337130774528</t>
+          <t>t-852608222380924929</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C353" t="n">
         <v>1</v>
@@ -5029,11 +5029,11 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-913112779548176384</t>
+          <t>t-852804949515698178</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C354" t="n">
         <v>1</v>
@@ -5042,7 +5042,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-922899400032178176</t>
+          <t>t-830540407763300352</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -5055,33 +5055,33 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-922934157185110016</t>
+          <t>t-863757133304795136</t>
         </is>
       </c>
       <c r="B356" t="n">
         <v>1</v>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-779013669589884928</t>
+          <t>t-891439389787774978</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-996488939933401088</t>
+          <t>t-891452469061996544</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -5094,7 +5094,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-797647100565716992</t>
+          <t>t-966639239407525888</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -5107,20 +5107,20 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-797655572573143040</t>
+          <t>t-881979226697740288</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-797814805772046336</t>
+          <t>t-882704580865404928</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -5133,20 +5133,20 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-803919035318628352</t>
+          <t>t-1026649986782650369</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-804312701002457088</t>
+          <t>t-913513656511614977</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -5159,46 +5159,46 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-848851618011525120</t>
+          <t>t-961482044650930177</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-817388602090987520</t>
+          <t>t-1042065710745309186</t>
         </is>
       </c>
       <c r="B365" t="n">
         <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-863757133304795136</t>
+          <t>t-1043080309376466944</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-882704580865404928</t>
+          <t>t-1043179210905464832</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -5211,24 +5211,24 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-906573891346165760</t>
+          <t>t-621860106481762304</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-1041752836835614720</t>
+          <t>t-702986489890775040</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C369" t="n">
         <v>0</v>
@@ -5237,50 +5237,50 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-1042065710745309186</t>
+          <t>t-703410728628305920</t>
         </is>
       </c>
       <c r="B370" t="n">
         <v>1</v>
       </c>
       <c r="C370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-1043080309376466944</t>
+          <t>t-954911597251657728</t>
         </is>
       </c>
       <c r="B371" t="n">
         <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-1043179210905464832</t>
+          <t>t-989520576460001280</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-630691491766251520</t>
+          <t>t-991032269405073408</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C373" t="n">
         <v>0</v>
@@ -5289,20 +5289,20 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-673357306764140544</t>
+          <t>t-991077450368061440</t>
         </is>
       </c>
       <c r="B374" t="n">
         <v>0</v>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-912723744195596289</t>
+          <t>t-1019582623679696898</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -5315,37 +5315,37 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-954911597251657728</t>
+          <t>t-519370037812277248</t>
         </is>
       </c>
       <c r="B376" t="n">
         <v>0</v>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-965605976698126341</t>
+          <t>t-1027253242261069824</t>
         </is>
       </c>
       <c r="B377" t="n">
         <v>0</v>
       </c>
       <c r="C377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-991032269405073408</t>
+          <t>t-521063203389050882</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C378" t="n">
         <v>0</v>
@@ -5354,11 +5354,11 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-991077450368061440</t>
+          <t>t-521358835361927168</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
@@ -5367,7 +5367,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-517603456123944960</t>
+          <t>t-776037646023925760</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -5380,63 +5380,63 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-517609652138569728</t>
+          <t>t-819436418263031808</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-518412519053221888</t>
+          <t>t-737657149174730753</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-519245102263574528</t>
+          <t>t-737657922885423104</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-519387709392314368</t>
+          <t>t-738291666285694976</t>
         </is>
       </c>
       <c r="B384" t="n">
         <v>1</v>
       </c>
       <c r="C384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-519393743326441472</t>
+          <t>t-750337554457694208</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
@@ -5445,11 +5445,11 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-519395800687083520</t>
+          <t>t-635444360306368512</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C386" t="n">
         <v>1</v>
@@ -5458,24 +5458,24 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-519401695307390976</t>
+          <t>t-782797044729741312</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-635439309563260929</t>
+          <t>t-1001002093895921665</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C388" t="n">
         <v>1</v>
@@ -5484,11 +5484,11 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-635461097114484736</t>
+          <t>t-1057306605287550976</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C389" t="n">
         <v>0</v>
@@ -5497,46 +5497,46 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-635467880918818816</t>
+          <t>t-1057548272053698560</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-635469518022803456</t>
+          <t>t-589443945773535232</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-635491308438728704</t>
+          <t>t-722253771867181056</t>
         </is>
       </c>
       <c r="B392" t="n">
         <v>1</v>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-635718998781390848</t>
+          <t>t-722818069320470529</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -5549,46 +5549,46 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-636228687013265410</t>
+          <t>t-722837910135832577</t>
         </is>
       </c>
       <c r="B394" t="n">
         <v>1</v>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-661802861446209536</t>
+          <t>t-722884869374619648</t>
         </is>
       </c>
       <c r="B395" t="n">
         <v>1</v>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-773146400129441792</t>
+          <t>t-723517423786299392</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-804010972331524096</t>
+          <t>t-931216910477414400</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -5601,7 +5601,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-819436418263031808</t>
+          <t>t-738967171397758976</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -5614,50 +5614,50 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-1006187748338864128</t>
+          <t>t-800968114653401088</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-1006198330727247872</t>
+          <t>t-832598430291730433</t>
         </is>
       </c>
       <c r="B400" t="n">
         <v>1</v>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-1006207380676280320</t>
+          <t>t-909677183328751616</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-1006582449827209216</t>
+          <t>t-529740815221153793</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C402" t="n">
         <v>0</v>
@@ -5666,7 +5666,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-1051696567651106816</t>
+          <t>t-580349296182198273</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -5679,7 +5679,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-1051874637942947840</t>
+          <t>t-595202959648096256</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -5692,11 +5692,11 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-676836902981513216</t>
+          <t>t-819866466162012160</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C405" t="n">
         <v>0</v>
@@ -5705,59 +5705,59 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-520483074711486464</t>
+          <t>t-875802481292439553</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-520499948983304192</t>
+          <t>t-955738647663431681</t>
         </is>
       </c>
       <c r="B407" t="n">
         <v>0</v>
       </c>
       <c r="C407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-520513908759859200</t>
+          <t>t-955740876436844544</t>
         </is>
       </c>
       <c r="B408" t="n">
         <v>1</v>
       </c>
       <c r="C408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-674956056209063937</t>
+          <t>t-956201264915910656</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-801681235982557184</t>
+          <t>t-965860574339923968</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -5770,7 +5770,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-1027294707855048705</t>
+          <t>t-538674754086244353</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -5783,11 +5783,11 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-737154199411122176</t>
+          <t>t-1049943076859461632</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C412" t="n">
         <v>0</v>
@@ -5796,11 +5796,11 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-931216910477414400</t>
+          <t>t-538736663154135040</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C413" t="n">
         <v>1</v>
@@ -5809,50 +5809,50 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-782797451639914497</t>
+          <t>t-538959622858883072</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-832598430291730433</t>
+          <t>t-591871892283334656</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-957342329127473158</t>
+          <t>t-634983488203177984</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-530728667891380225</t>
+          <t>t-748093412272910336</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C417" t="n">
         <v>1</v>
@@ -5861,7 +5861,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-627009098568073216</t>
+          <t>t-933614181286318081</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -5874,7 +5874,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-676099835372654592</t>
+          <t>t-933625586442035205</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -5887,7 +5887,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-738708820491259904</t>
+          <t>t-993438566914101248</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -5900,20 +5900,20 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-738754856811417601</t>
+          <t>t-1008363588552151040</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-738830571351224320</t>
+          <t>t-542716499115642881</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -5926,24 +5926,24 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-739181708906467329</t>
+          <t>t-653928809671081984</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-538674754086244353</t>
+          <t>t-740095983602782208</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C424" t="n">
         <v>1</v>
@@ -5952,7 +5952,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-1049943076859461632</t>
+          <t>t-816609916018454528</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -5965,7 +5965,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-603463396365836289</t>
+          <t>t-560682074529484800</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -5978,11 +5978,11 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-636255173036388352</t>
+          <t>t-831105804946247681</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C427" t="n">
         <v>1</v>
@@ -5991,7 +5991,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-702966418057330688</t>
+          <t>t-958216984176427008</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -6004,50 +6004,50 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-703646494901927936</t>
+          <t>t-567369806647951362</t>
         </is>
       </c>
       <c r="B429" t="n">
         <v>0</v>
       </c>
       <c r="C429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-734290700469166080</t>
+          <t>t-567639888489500672</t>
         </is>
       </c>
       <c r="B430" t="n">
         <v>0</v>
       </c>
       <c r="C430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-762281733672820736</t>
+          <t>t-999158779580121089</t>
         </is>
       </c>
       <c r="B431" t="n">
         <v>0</v>
       </c>
       <c r="C431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-783909177920020480</t>
+          <t>t-633755138834874368</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C432" t="n">
         <v>1</v>
@@ -6056,11 +6056,11 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-784305124269182976</t>
+          <t>t-869260706524397568</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C433" t="n">
         <v>1</v>
@@ -6069,7 +6069,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-787588682731626496</t>
+          <t>t-580822339648122880</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -6082,7 +6082,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-806453539409162240</t>
+          <t>t-581167008596758528</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -6095,24 +6095,24 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-806476961451216896</t>
+          <t>t-850396935152422913</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-834770863664795650</t>
+          <t>t-859839256700882944</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C437" t="n">
         <v>1</v>
@@ -6121,24 +6121,24 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-894594064582094852</t>
+          <t>t-860843222091935744</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-987423120817643520</t>
+          <t>t-861496628741640192</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C439" t="n">
         <v>1</v>
@@ -6147,11 +6147,11 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-1006399568249008128</t>
+          <t>t-862635910306856964</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C440" t="n">
         <v>0</v>
@@ -6160,11 +6160,11 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-1006422910762995712</t>
+          <t>t-862992827487309824</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C441" t="n">
         <v>1</v>
@@ -6173,115 +6173,115 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-1006422931839299584</t>
+          <t>t-863003997464080384</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-1006427045709180929</t>
+          <t>t-863121747360571392</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-1006463635693203456</t>
+          <t>t-1003856366128259073</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-1008363588552151040</t>
+          <t>t-583486848426713088</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-542716499115642881</t>
+          <t>t-586494775089442816</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-545381752093806593</t>
+          <t>t-737201412497649664</t>
         </is>
       </c>
       <c r="B447" t="n">
         <v>1</v>
       </c>
       <c r="C447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-722777139469283328</t>
+          <t>t-737877218718797825</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-1014607937048850434</t>
+          <t>t-738015379373625344</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-629936150220685312</t>
+          <t>t-738097397058932736</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C450" t="n">
         <v>0</v>
@@ -6290,50 +6290,50 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-669507403621277696</t>
+          <t>t-738253541266075652</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-669900887607898113</t>
+          <t>t-738419452778274816</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-828957006832795648</t>
+          <t>t-738714074352123904</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-987343892633747456</t>
+          <t>t-962759977394991104</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C454" t="n">
         <v>0</v>
@@ -6342,7 +6342,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-1034815239219539970</t>
+          <t>t-590431507967299584</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -6355,7 +6355,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-707530442468098049</t>
+          <t>t-743692015158726656</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -6368,20 +6368,20 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-707587020831518720</t>
+          <t>t-743726128003588096</t>
         </is>
       </c>
       <c r="B457" t="n">
         <v>1</v>
       </c>
       <c r="C457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-960782723957870592</t>
+          <t>t-592904512131768321</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -6394,50 +6394,50 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-999158779580121089</t>
+          <t>t-740222976763830272</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-575707186204180480</t>
+          <t>t-740225059193819140</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-1003856366128259073</t>
+          <t>t-740231562940297216</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-1027292918111825921</t>
+          <t>t-740233568627068929</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C462" t="n">
         <v>1</v>
@@ -6446,24 +6446,24 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-712917955391172609</t>
+          <t>t-740511241383387136</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-817303376253882368</t>
+          <t>t-741661270017970176</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C464" t="n">
         <v>1</v>
@@ -6472,20 +6472,20 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-940281474259062789</t>
+          <t>t-895521975434530816</t>
         </is>
       </c>
       <c r="B465" t="n">
         <v>1</v>
       </c>
       <c r="C465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-590431507967299584</t>
+          <t>t-895525136580923394</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -6498,7 +6498,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-737572670372339712</t>
+          <t>t-720146113794183169</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -6511,7 +6511,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-740222976763830272</t>
+          <t>t-728815708801531904</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -6524,50 +6524,50 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-740225059193819140</t>
+          <t>t-728860742099849216</t>
         </is>
       </c>
       <c r="B469" t="n">
         <v>1</v>
       </c>
       <c r="C469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-740231562940297216</t>
+          <t>t-955871714914766849</t>
         </is>
       </c>
       <c r="B470" t="n">
         <v>1</v>
       </c>
       <c r="C470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-740233568627068929</t>
+          <t>t-601387987851677696</t>
         </is>
       </c>
       <c r="B471" t="n">
         <v>1</v>
       </c>
       <c r="C471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-740511241383387136</t>
+          <t>t-601436583682703361</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C472" t="n">
         <v>1</v>
@@ -6576,7 +6576,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-594549643134009344</t>
+          <t>t-940349476509814789</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -6589,11 +6589,11 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-776349771640496128</t>
+          <t>t-613277694457856004</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C474" t="n">
         <v>1</v>
@@ -6602,7 +6602,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-608689054549471232</t>
+          <t>t-900842879182131201</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -6615,24 +6615,24 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-612221773757681664</t>
+          <t>t-1032956238051659778</t>
         </is>
       </c>
       <c r="B476" t="n">
         <v>1</v>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-1019348620489969664</t>
+          <t>t-639695836943884288</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C477" t="n">
         <v>1</v>
@@ -6641,11 +6641,11 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-1021061872274018305</t>
+          <t>t-656425382145597440</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C478" t="n">
         <v>1</v>
@@ -6654,7 +6654,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-907976446286680066</t>
+          <t>t-661463139213565952</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -6667,20 +6667,20 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-908018109373730816</t>
+          <t>t-880072530329038848</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-740216200379158528</t>
+          <t>t-953295637679951872</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -6693,11 +6693,11 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-740233298862080000</t>
+          <t>t-953311292475011072</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C482" t="n">
         <v>1</v>
@@ -6706,33 +6706,33 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-740234615814819840</t>
+          <t>t-652148120952803329</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-740250007081766912</t>
+          <t>t-656869699980955649</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-740302081416962049</t>
+          <t>t-657672314465726464</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -6745,85 +6745,85 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-641169109116293120</t>
+          <t>t-669879511748579329</t>
         </is>
       </c>
       <c r="B486" t="n">
         <v>1</v>
       </c>
       <c r="C486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-899696948046856192</t>
+          <t>t-670195512713330689</t>
         </is>
       </c>
       <c r="B487" t="n">
         <v>1</v>
       </c>
       <c r="C487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-1008697922366689285</t>
+          <t>t-676501548063657984</t>
         </is>
       </c>
       <c r="B488" t="n">
         <v>0</v>
       </c>
       <c r="C488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-984045729260982272</t>
+          <t>t-681422251338674177</t>
         </is>
       </c>
       <c r="B489" t="n">
         <v>0</v>
       </c>
       <c r="C489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-1056610127975997440</t>
+          <t>t-685089211784019968</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-908615579501780992</t>
+          <t>t-950677684811640833</t>
         </is>
       </c>
       <c r="B491" t="n">
         <v>0</v>
       </c>
       <c r="C491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-910016271554576384</t>
+          <t>t-715202576552169472</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -6836,20 +6836,20 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-666556746308198401</t>
+          <t>t-897572628667478020</t>
         </is>
       </c>
       <c r="B493" t="n">
         <v>1</v>
       </c>
       <c r="C493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-1005827335977885696</t>
+          <t>t-730493187534413824</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -6862,7 +6862,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-685089211784019968</t>
+          <t>t-730679314916757504</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -6875,24 +6875,24 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-695507166833184769</t>
+          <t>t-734423204488445952</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-704826129178370050</t>
+          <t>t-736607968997838848</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C497" t="n">
         <v>1</v>
@@ -6901,11 +6901,11 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-952055483354972160</t>
+          <t>t-963803678573547520</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C498" t="n">
         <v>0</v>
@@ -6914,24 +6914,24 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-715965241637470208</t>
+          <t>t-737663862317682689</t>
         </is>
       </c>
       <c r="B499" t="n">
         <v>1</v>
       </c>
       <c r="C499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-720951969716809728</t>
+          <t>t-737736248970911744</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C500" t="n">
         <v>1</v>
@@ -6940,7 +6940,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-737207145662435328</t>
+          <t>t-1006483455209766912</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -6953,11 +6953,11 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-737378615814393856</t>
+          <t>t-1006781895278055424</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C502" t="n">
         <v>1</v>
@@ -6966,33 +6966,33 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-737618316705964032</t>
+          <t>t-1006804114234322945</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-737643792757587968</t>
+          <t>t-745170424456052736</t>
         </is>
       </c>
       <c r="B504" t="n">
         <v>1</v>
       </c>
       <c r="C504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-737668431374389250</t>
+          <t>t-740517137236647936</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -7005,7 +7005,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-737882738997530625</t>
+          <t>t-746386418465914880</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -7018,7 +7018,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-738072611704430592</t>
+          <t>t-748138953241464832</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -7031,33 +7031,33 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-738383058857021440</t>
+          <t>t-767290506456039424</t>
         </is>
       </c>
       <c r="B508" t="n">
         <v>1</v>
       </c>
       <c r="C508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-741709377703411712</t>
+          <t>t-792319235351535616</t>
         </is>
       </c>
       <c r="B509" t="n">
         <v>0</v>
       </c>
       <c r="C509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-1062323949680373760</t>
+          <t>t-803544744215384064</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -7070,20 +7070,20 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-957930793187397632</t>
+          <t>t-806105457077186561</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-890865444307042304</t>
+          <t>t-806175022247280641</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -7096,20 +7096,20 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-884308996835991554</t>
+          <t>t-806834354802438144</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-738250548865032192</t>
+          <t>t-831171283400409088</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -7122,20 +7122,20 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-738751926372827136</t>
+          <t>t-834984907881525249</t>
         </is>
       </c>
       <c r="B515" t="n">
         <v>1</v>
       </c>
       <c r="C515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-740249467828482048</t>
+          <t>t-952289558770651136</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -7148,7 +7148,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-746386418465914880</t>
+          <t>t-952536637413584897</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -7161,7 +7161,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-755694559401762816</t>
+          <t>t-952649290148704259</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -7174,24 +7174,24 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-760420119554076674</t>
+          <t>t-952989314534617088</t>
         </is>
       </c>
       <c r="B519" t="n">
         <v>1</v>
       </c>
       <c r="C519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-767290506456039424</t>
+          <t>t-989189175357276160</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C520" t="n">
         <v>1</v>
@@ -7200,7 +7200,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-906552804285861889</t>
+          <t>t-875285232924188672</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -7213,37 +7213,37 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-834805481759789056</t>
+          <t>t-1002130830792241153</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-836581914320506880</t>
+          <t>t-887813365304705024</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-852898298344099840</t>
+          <t>t-892499939137335296</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C524" t="n">
         <v>0</v>
@@ -7252,33 +7252,33 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-861335479475634176</t>
+          <t>t-1038090181595877376</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-1002130830792241153</t>
+          <t>t-905976569503592449</t>
         </is>
       </c>
       <c r="B526" t="n">
         <v>0</v>
       </c>
       <c r="C526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-1038090181595877376</t>
+          <t>t-906394228602949632</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -7291,11 +7291,11 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-904852554470883329</t>
+          <t>t-906936222282547201</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C528" t="n">
         <v>1</v>
@@ -7304,20 +7304,20 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-913806353851969537</t>
+          <t>t-906965286787710976</t>
         </is>
       </c>
       <c r="B529" t="n">
         <v>1</v>
       </c>
       <c r="C529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-1003312973887270917</t>
+          <t>t-907173357510184965</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -7330,20 +7330,20 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-1003367321245798400</t>
+          <t>t-907196691270569985</t>
         </is>
       </c>
       <c r="B531" t="n">
         <v>1</v>
       </c>
       <c r="C531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-1003369104735113216</t>
+          <t>t-913806353851969537</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -7356,11 +7356,11 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-1003387066909167617</t>
+          <t>t-940225923332403204</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C533" t="n">
         <v>1</v>
@@ -7369,11 +7369,11 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-1003393307597312000</t>
+          <t>t-940273268677849088</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C534" t="n">
         <v>1</v>
@@ -7382,24 +7382,24 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-1003471542783823872</t>
+          <t>t-949999091047477249</t>
         </is>
       </c>
       <c r="B535" t="n">
         <v>1</v>
       </c>
       <c r="C535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-1003531171559628800</t>
+          <t>t-953922137156411392</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C536" t="n">
         <v>0</v>
@@ -7408,33 +7408,33 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-1003538396285947905</t>
+          <t>t-955806828146827266</t>
         </is>
       </c>
       <c r="B537" t="n">
         <v>1</v>
       </c>
       <c r="C537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-1003544511115603973</t>
+          <t>t-958848005502681088</t>
         </is>
       </c>
       <c r="B538" t="n">
         <v>1</v>
       </c>
       <c r="C538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-1003657726029975553</t>
+          <t>t-959068004729475072</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -7447,7 +7447,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-1003966949058056192</t>
+          <t>t-1030184521969410055</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -7460,7 +7460,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-958848005502681088</t>
+          <t>t-1051774073523634182</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -7473,63 +7473,63 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-959068004729475072</t>
+          <t>t-1052071039923044352</t>
         </is>
       </c>
       <c r="B542" t="n">
         <v>1</v>
       </c>
       <c r="C542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-992783370114433024</t>
+          <t>t-1052145118726238209</t>
         </is>
       </c>
       <c r="B543" t="n">
         <v>1</v>
       </c>
       <c r="C543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-1003659615115141120</t>
+          <t>t-1052182549513035776</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-1017566472292495360</t>
+          <t>t-590545916886659072</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-950875222734929921</t>
+          <t>t-675498810152325120</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C546" t="n">
         <v>0</v>
@@ -7538,7 +7538,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-950925554487738369</t>
+          <t>t-550997963590610944</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -7551,33 +7551,33 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-565143761131671552</t>
+          <t>t-551059868657152002</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-666296658595069952</t>
+          <t>t-551164779646038017</t>
         </is>
       </c>
       <c r="B549" t="n">
         <v>0</v>
       </c>
       <c r="C549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-666325159947563008</t>
+          <t>t-552328482282553344</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -7590,37 +7590,37 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-956368490293800960</t>
+          <t>t-552381413899898881</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-956387965382610945</t>
+          <t>t-552754433155928064</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-529938272265703424</t>
+          <t>t-552860760968138752</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C553" t="n">
         <v>1</v>
@@ -7629,11 +7629,11 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-532541340023017473</t>
+          <t>t-552960294360977408</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C554" t="n">
         <v>1</v>
@@ -7642,11 +7642,11 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-537546537975685120</t>
+          <t>t-553046169975148544</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C555" t="n">
         <v>0</v>
@@ -7655,11 +7655,11 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-537578272348205056</t>
+          <t>t-553111267569713154</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C556" t="n">
         <v>1</v>
@@ -7668,7 +7668,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-537578565139582976</t>
+          <t>t-553535305601392640</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -7681,11 +7681,11 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-537896255347646465</t>
+          <t>t-557932086149918722</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C558" t="n">
         <v>1</v>
@@ -7694,7 +7694,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-549142719973445632</t>
+          <t>t-558466774392266752</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -7707,33 +7707,33 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-549750044099088384</t>
+          <t>t-558501767688642560</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-549858427787153410</t>
+          <t>t-558892309320724482</t>
         </is>
       </c>
       <c r="B561" t="n">
         <v>0</v>
       </c>
       <c r="C561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-549861279825817601</t>
+          <t>t-559263075183104000</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -7746,33 +7746,33 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-550997963590610944</t>
+          <t>t-559573400780156928</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-551059868657152002</t>
+          <t>t-579789832131575808</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-551164779646038017</t>
+          <t>t-580874616324943872</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -7785,11 +7785,11 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-552328482282553344</t>
+          <t>t-620843348505432064</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C566" t="n">
         <v>0</v>
@@ -7798,33 +7798,33 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-552381413899898881</t>
+          <t>t-643644357350948864</t>
         </is>
       </c>
       <c r="B567" t="n">
         <v>0</v>
       </c>
       <c r="C567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-552754433155928064</t>
+          <t>t-648493309824925696</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-552860760968138752</t>
+          <t>t-676377478168862721</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -7837,20 +7837,20 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-552960294360977408</t>
+          <t>t-677293991713308673</t>
         </is>
       </c>
       <c r="B570" t="n">
         <v>1</v>
       </c>
       <c r="C570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-553046169975148544</t>
+          <t>t-678077110070566912</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -7863,11 +7863,11 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-553111267569713154</t>
+          <t>t-695965752088723456</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C572" t="n">
         <v>1</v>
@@ -7876,59 +7876,59 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-553535305601392640</t>
+          <t>t-695968588012752896</t>
         </is>
       </c>
       <c r="B573" t="n">
         <v>1</v>
       </c>
       <c r="C573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-566257094865981440</t>
+          <t>t-711861360414433281</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-579789832131575808</t>
+          <t>t-711871478451417088</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-580874616324943872</t>
+          <t>t-711899328244113408</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-616630261191716864</t>
+          <t>t-712616490994892801</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -7941,11 +7941,11 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-648493309824925696</t>
+          <t>t-788186519307563010</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C578" t="n">
         <v>1</v>
@@ -7954,20 +7954,20 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-666134929525178369</t>
+          <t>t-835120033412038656</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-666141677652848640</t>
+          <t>t-854250685419986949</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -7980,7 +7980,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-666146479564681217</t>
+          <t>t-854262837673246720</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -7993,11 +7993,11 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-666155143696506880</t>
+          <t>t-921445800072298496</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C582" t="n">
         <v>1</v>
@@ -8006,11 +8006,11 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-666158894691954689</t>
+          <t>t-922085813818658816</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C583" t="n">
         <v>0</v>
@@ -8019,11 +8019,11 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-666536410439028736</t>
+          <t>t-1031392016255647744</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C584" t="n">
         <v>0</v>
@@ -8032,24 +8032,24 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-666602420022194177</t>
+          <t>t-509160710316650496</t>
         </is>
       </c>
       <c r="B585" t="n">
         <v>1</v>
       </c>
       <c r="C585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-666664955077242881</t>
+          <t>t-509293535221145601</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C586" t="n">
         <v>1</v>
@@ -8058,85 +8058,85 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-667221889505296388</t>
+          <t>t-706517570451427328</t>
         </is>
       </c>
       <c r="B587" t="n">
         <v>1</v>
       </c>
       <c r="C587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-667625624421445632</t>
+          <t>t-762938358486052865</t>
         </is>
       </c>
       <c r="B588" t="n">
         <v>0</v>
       </c>
       <c r="C588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-667976594137350144</t>
+          <t>t-782517721938300928</t>
         </is>
       </c>
       <c r="B589" t="n">
         <v>0</v>
       </c>
       <c r="C589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-668796235004932096</t>
+          <t>t-806390063244410880</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-669882207800942593</t>
+          <t>t-806499176066453505</t>
         </is>
       </c>
       <c r="B591" t="n">
         <v>1</v>
       </c>
       <c r="C591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-674391856298385408</t>
+          <t>t-823758777857908736</t>
         </is>
       </c>
       <c r="B592" t="n">
         <v>1</v>
       </c>
       <c r="C592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-674458539629219844</t>
+          <t>t-823809561622695937</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -8149,7 +8149,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-676377478168862721</t>
+          <t>t-823868915621052416</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -8162,37 +8162,37 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-677293991713308673</t>
+          <t>t-824113067696930816</t>
         </is>
       </c>
       <c r="B595" t="n">
         <v>1</v>
       </c>
       <c r="C595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-678077110070566912</t>
+          <t>t-824154025864167424</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-736860584470159360</t>
+          <t>t-824160171534467072</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C597" t="n">
         <v>0</v>
@@ -8201,24 +8201,24 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-755613145079484416</t>
+          <t>t-825053893184753664</t>
         </is>
       </c>
       <c r="B598" t="n">
         <v>1</v>
       </c>
       <c r="C598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-831833976029454338</t>
+          <t>t-825136994833428480</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C599" t="n">
         <v>1</v>
@@ -8227,11 +8227,11 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-852554541803417600</t>
+          <t>t-825930607427416064</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C600" t="n">
         <v>1</v>
@@ -8240,11 +8240,11 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-921445800072298496</t>
+          <t>t-838217823608438784</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C601" t="n">
         <v>0</v>
@@ -8253,7 +8253,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-922085813818658816</t>
+          <t>t-871870603011043328</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -8266,7 +8266,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-935721877053505536</t>
+          <t>t-872126007855038464</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -8279,24 +8279,24 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-947798399184785408</t>
+          <t>t-914680114595602432</t>
         </is>
       </c>
       <c r="B604" t="n">
         <v>1</v>
       </c>
       <c r="C604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-947806740518641664</t>
+          <t>t-965395788435046400</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C605" t="n">
         <v>1</v>
@@ -8305,20 +8305,20 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-947808691230822401</t>
+          <t>t-533912579676975104</t>
         </is>
       </c>
       <c r="B606" t="n">
         <v>1</v>
       </c>
       <c r="C606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-947833275673747457</t>
+          <t>t-546829406539243520</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -8331,7 +8331,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-948185680043155456</t>
+          <t>t-546846288554500096</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,20 +8344,20 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-948407157803728896</t>
+          <t>t-547603292180578305</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-948721205443358720</t>
+          <t>t-547621920103862272</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -8370,7 +8370,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-948800260238815232</t>
+          <t>t-547636294059184128</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -8383,37 +8383,37 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-948884291743870976</t>
+          <t>t-547637054578769920</t>
         </is>
       </c>
       <c r="B612" t="n">
         <v>1</v>
       </c>
       <c r="C612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-994075228354510848</t>
+          <t>t-581777426016956417</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-718742884065759233</t>
+          <t>t-587184590302814208</t>
         </is>
       </c>
       <c r="B614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C614" t="n">
         <v>1</v>
@@ -8422,7 +8422,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-914680114595602432</t>
+          <t>t-587194258815221760</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -8435,7 +8435,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-916572694472155137</t>
+          <t>t-587194893052747777</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -8448,7 +8448,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-976046458834116609</t>
+          <t>t-662632429539057666</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -8461,7 +8461,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-605261202822807552</t>
+          <t>t-662681193154920448</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,14 +8474,14 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-605672293654654976</t>
+          <t>t-663567974029131776</t>
         </is>
       </c>
       <c r="B619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
@@ -8500,7 +8500,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-671487099355426816</t>
+          <t>t-674612681832140800</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,20 +8513,20 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-671928198360391680</t>
+          <t>t-708275780988473345</t>
         </is>
       </c>
       <c r="B622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-672328618379362304</t>
+          <t>t-709001129091174403</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -8539,33 +8539,33 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-673050773710839808</t>
+          <t>t-709281433978687488</t>
         </is>
       </c>
       <c r="B624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-674612681832140800</t>
+          <t>t-718078465698881536</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-708275780988473345</t>
+          <t>t-718738885862232064</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -8578,7 +8578,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-709001129091174403</t>
+          <t>t-718790966774083584</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -8591,7 +8591,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-709281433978687488</t>
+          <t>t-721601854761619457</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,7 +8604,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-732021013433724928</t>
+          <t>t-721697193174798336</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -8617,11 +8617,11 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-732494989838540800</t>
+          <t>t-796319752176009216</t>
         </is>
       </c>
       <c r="B630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C630" t="n">
         <v>1</v>
@@ -8630,7 +8630,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-732496065941798912</t>
+          <t>t-796346157156864001</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -8643,20 +8643,20 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-740813200766214144</t>
+          <t>t-796369433241403393</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C632" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-749065341586726912</t>
+          <t>t-796693709639168001</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,7 +8669,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-799522784040849408</t>
+          <t>t-797722245741223936</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,46 +8682,46 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-836823983353909248</t>
+          <t>t-797729987348418561</t>
         </is>
       </c>
       <c r="B635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-842271490141634560</t>
+          <t>t-797771440128860162</t>
         </is>
       </c>
       <c r="B636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-842322052103122944</t>
+          <t>t-797771478930366464</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-842905808266448896</t>
+          <t>t-797792110535528448</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,11 +8734,11 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-842910185718931456</t>
+          <t>t-798105876364029953</t>
         </is>
       </c>
       <c r="B639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C639" t="n">
         <v>1</v>
@@ -8747,7 +8747,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-918078962173075457</t>
+          <t>t-880004628884013057</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,7 +8760,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-918257100547014658</t>
+          <t>t-918078962173075457</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,11 +8773,11 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-924905228415193088</t>
+          <t>t-918257100547014658</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C642" t="n">
         <v>1</v>
@@ -8786,11 +8786,11 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-706405441522143232</t>
+          <t>t-922601399271112704</t>
         </is>
       </c>
       <c r="B643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C643" t="n">
         <v>0</v>
@@ -8799,11 +8799,11 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-783478326421704704</t>
+          <t>t-1024894521568448513</t>
         </is>
       </c>
       <c r="B644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C644" t="n">
         <v>0</v>
@@ -8812,7 +8812,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-934049646694998016</t>
+          <t>t-723687727468683264</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -8825,7 +8825,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-964120690952564737</t>
+          <t>t-723764446498152448</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -8838,7 +8838,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-528210205746532352</t>
+          <t>t-961643380684959749</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -8851,33 +8851,33 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-528777132097298433</t>
+          <t>t-1062500554134310912</t>
         </is>
       </c>
       <c r="B648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-528826156708278272</t>
+          <t>t-528210205746532352</t>
         </is>
       </c>
       <c r="B649" t="n">
         <v>1</v>
       </c>
       <c r="C649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-528877062564503552</t>
+          <t>t-528777132097298433</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,7 +8890,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-529071458085900288</t>
+          <t>t-528826156708278272</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -8903,7 +8903,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-529085805034094593</t>
+          <t>t-528877062564503552</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,7 +8916,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-529166911674671104</t>
+          <t>t-529071458085900288</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,7 +8929,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-529236028171620353</t>
+          <t>t-529085805034094593</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,7 +8942,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-529319778377166848</t>
+          <t>t-529166911674671104</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -8955,7 +8955,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-530135697877766146</t>
+          <t>t-529236028171620353</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -8968,7 +8968,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-530218899833241600</t>
+          <t>t-529319778377166848</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -8981,7 +8981,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-592295516517502976</t>
+          <t>t-530135697877766146</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,7 +8994,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-689784474884648961</t>
+          <t>t-530218899833241600</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -9007,37 +9007,37 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-822370054381522945</t>
+          <t>t-555289784240054272</t>
         </is>
       </c>
       <c r="B660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-929369497420685312</t>
+          <t>t-555290912268750848</t>
         </is>
       </c>
       <c r="B661" t="n">
         <v>0</v>
       </c>
       <c r="C661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-523431319012139009</t>
+          <t>t-555447424768954368</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C662" t="n">
         <v>1</v>
@@ -9046,11 +9046,11 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-527311291191263232</t>
+          <t>t-661588229892673536</t>
         </is>
       </c>
       <c r="B663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C663" t="n">
         <v>1</v>
@@ -9059,7 +9059,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-694164443224154112</t>
+          <t>t-788398448508739585</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -9072,7 +9072,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-694343886626394113</t>
+          <t>t-788457694453637120</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -9085,7 +9085,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-694445663426207744</t>
+          <t>t-989542585978052610</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -9098,11 +9098,11 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-777029515289563136</t>
+          <t>t-1028122158990381056</t>
         </is>
       </c>
       <c r="B667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C667" t="n">
         <v>1</v>
@@ -9111,7 +9111,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-777052253362335745</t>
+          <t>t-523431319012139009</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,24 +9124,24 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-801391859083988993</t>
+          <t>t-757366725759242240</t>
         </is>
       </c>
       <c r="B669" t="n">
         <v>1</v>
       </c>
       <c r="C669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-836878014587744257</t>
+          <t>t-757494302339571712</t>
         </is>
       </c>
       <c r="B670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C670" t="n">
         <v>1</v>
@@ -9150,76 +9150,76 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-983954928610697216</t>
+          <t>t-757771911346749441</t>
         </is>
       </c>
       <c r="B671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-699788036561743872</t>
+          <t>t-757882635976790016</t>
         </is>
       </c>
       <c r="B672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-550823263941574657</t>
+          <t>t-758521629890650113</t>
         </is>
       </c>
       <c r="B673" t="n">
         <v>1</v>
       </c>
       <c r="C673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-702026039967531008</t>
+          <t>t-780295387017949184</t>
         </is>
       </c>
       <c r="B674" t="n">
         <v>0</v>
       </c>
       <c r="C674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-779194196724887553</t>
+          <t>t-527311291191263232</t>
         </is>
       </c>
       <c r="B675" t="n">
         <v>0</v>
       </c>
       <c r="C675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-859771332908777474</t>
+          <t>t-565428032685740033</t>
         </is>
       </c>
       <c r="B676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C676" t="n">
         <v>0</v>
@@ -9228,11 +9228,11 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-966989390873378816</t>
+          <t>t-829520315575177217</t>
         </is>
       </c>
       <c r="B677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C677" t="n">
         <v>1</v>
@@ -9241,11 +9241,11 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-544801968703557632</t>
+          <t>t-830684745323327488</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C678" t="n">
         <v>1</v>
@@ -9254,20 +9254,20 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-607931728045338625</t>
+          <t>t-532101195737735168</t>
         </is>
       </c>
       <c r="B679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-797685704197214209</t>
+          <t>t-532807839664730113</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,7 +9280,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-797694645522137093</t>
+          <t>t-558428892898131968</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -9293,37 +9293,37 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-798670554630762496</t>
+          <t>t-558596887519850496</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-547937617547771905</t>
+          <t>t-666809196977909760</t>
         </is>
       </c>
       <c r="B683" t="n">
         <v>0</v>
       </c>
       <c r="C683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-812248571802025984</t>
+          <t>t-699788036561743872</t>
         </is>
       </c>
       <c r="B684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C684" t="n">
         <v>0</v>
@@ -9332,7 +9332,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-966644863226732544</t>
+          <t>t-833843048253681665</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -9345,7 +9345,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-966649635170238465</t>
+          <t>t-834648744150892546</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -9358,7 +9358,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-550867696435200000</t>
+          <t>t-544711019629907968</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,11 +9371,11 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-550870336418234368</t>
+          <t>t-544769671799394304</t>
         </is>
       </c>
       <c r="B688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C688" t="n">
         <v>1</v>
@@ -9384,7 +9384,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-550963305326862336</t>
+          <t>t-544813894037147648</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,24 +9397,24 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-551099005388599297</t>
+          <t>t-545169541052243968</t>
         </is>
       </c>
       <c r="B690" t="n">
         <v>1</v>
       </c>
       <c r="C690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-551184362054500352</t>
+          <t>t-935391382331588609</t>
         </is>
       </c>
       <c r="B691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C691" t="n">
         <v>1</v>
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-1037871134488707072</t>
+          <t>t-935397608851324931</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,11 +9436,11 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-1037879643695529985</t>
+          <t>t-935407791757389824</t>
         </is>
       </c>
       <c r="B693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C693" t="n">
         <v>1</v>
@@ -9449,7 +9449,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-1037893136482103296</t>
+          <t>t-928119470215847936</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -9462,33 +9462,33 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-1037997508973060096</t>
+          <t>t-636337860757483520</t>
         </is>
       </c>
       <c r="B695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-564756286211100672</t>
+          <t>t-708854826730295296</t>
         </is>
       </c>
       <c r="B696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-565303060420112386</t>
+          <t>t-737185619730780161</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -9501,20 +9501,20 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-565336619021262848</t>
+          <t>t-567587172367077376</t>
         </is>
       </c>
       <c r="B698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-594000547591553024</t>
+          <t>t-607931728045338625</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -9527,7 +9527,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-594263552824741888</t>
+          <t>t-809685070428524546</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,20 +9540,20 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-594718318050684929</t>
+          <t>t-960667988255850496</t>
         </is>
       </c>
       <c r="B701" t="n">
         <v>1</v>
       </c>
       <c r="C701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-595757559006507011</t>
+          <t>t-557074144505114625</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -9566,33 +9566,33 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-697434910303264773</t>
+          <t>t-599804476774436864</t>
         </is>
       </c>
       <c r="B703" t="n">
         <v>1</v>
       </c>
       <c r="C703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-704474821959163905</t>
+          <t>t-941530453147836416</t>
         </is>
       </c>
       <c r="B704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-832028212376985600</t>
+          <t>t-1027038929319411712</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -9605,7 +9605,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-832064333504933888</t>
+          <t>t-1027057881365901312</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -9618,7 +9618,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-946271534502395905</t>
+          <t>t-1027179632922046467</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -9631,7 +9631,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-620194547256029184</t>
+          <t>t-941661763132579840</t>
         </is>
       </c>
       <c r="B708" t="n">
@@ -9644,11 +9644,11 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-950566545595551745</t>
+          <t>t-594000547591553024</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C709" t="n">
         <v>0</v>
@@ -9657,24 +9657,24 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-954254379967660032</t>
+          <t>t-594263552824741888</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-564347457773920257</t>
+          <t>t-594718318050684929</t>
         </is>
       </c>
       <c r="B711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C711" t="n">
         <v>1</v>
@@ -9683,7 +9683,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-563242661562576896</t>
+          <t>t-595757559006507011</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -9696,7 +9696,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-564304402253508608</t>
+          <t>t-780018288940158976</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -9709,20 +9709,20 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-757432883531304960</t>
+          <t>t-781093621592383488</t>
         </is>
       </c>
       <c r="B714" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C714" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-674136729771577344</t>
+          <t>t-826783220507168768</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -9735,7 +9735,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-718718501679017984</t>
+          <t>t-839272244895309824</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -9748,37 +9748,37 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-753509017096364033</t>
+          <t>t-950566545595551745</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-802066289527095297</t>
+          <t>t-1016952321333497856</t>
         </is>
       </c>
       <c r="B718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-802114052063252481</t>
+          <t>t-698712295900229633</t>
         </is>
       </c>
       <c r="B719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C719" t="n">
         <v>1</v>
@@ -9787,20 +9787,20 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-833819761821757440</t>
+          <t>t-741496457824374784</t>
         </is>
       </c>
       <c r="B720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-935417453286326277</t>
+          <t>t-805321168580395008</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,7 +9813,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-610619808913076224</t>
+          <t>t-579242361768677376</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -9826,7 +9826,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-640851401892065280</t>
+          <t>t-584288298249531392</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9839,11 +9839,11 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-675601382867537920</t>
+          <t>t-605944627380817920</t>
         </is>
       </c>
       <c r="B724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C724" t="n">
         <v>1</v>
@@ -9852,7 +9852,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-676436379425894400</t>
+          <t>t-677428252881784832</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,7 +9865,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-691264325659422721</t>
+          <t>t-720546793344270336</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,11 +9878,11 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-691280497184362497</t>
+          <t>t-997052112126136320</t>
         </is>
       </c>
       <c r="B727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C727" t="n">
         <v>1</v>
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-702431733740920832</t>
+          <t>t-610619808913076224</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,20 +9904,20 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-702439207684464640</t>
+          <t>t-702431733740920832</t>
         </is>
       </c>
       <c r="B729" t="n">
         <v>1</v>
       </c>
       <c r="C729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-733197295139741697</t>
+          <t>t-702439207684464640</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,39 +9930,13 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-780951872647475200</t>
+          <t>t-833891988315336704</t>
         </is>
       </c>
       <c r="B731" t="n">
         <v>1</v>
       </c>
       <c r="C731" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" t="inlineStr">
-        <is>
-          <t>t-946177924222222336</t>
-        </is>
-      </c>
-      <c r="B732" t="n">
-        <v>1</v>
-      </c>
-      <c r="C732" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>t-928096679089209344</t>
-        </is>
-      </c>
-      <c r="B733" t="n">
-        <v>0</v>
-      </c>
-      <c r="C733" t="n">
         <v>1</v>
       </c>
     </row>
